--- a/Test Data/TC_137_Verify_Isolator_Units_Calculation_For_Devices_Having_Built_In_Isolator.xlsx
+++ b/Test Data/TC_137_Verify_Isolator_Units_Calculation_For_Devices_Having_Built_In_Isolator.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65725822-0C1E-4830-833A-71AA484B2131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Verify IB Devices" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,9 +91,6 @@
     <t>CP 820</t>
   </si>
   <si>
-    <t>801 H - 1</t>
-  </si>
-  <si>
     <t>Panel Type</t>
   </si>
   <si>
@@ -240,12 +236,15 @@
   </si>
   <si>
     <t>NGC-549/TC-137</t>
+  </si>
+  <si>
+    <t>801 PH - 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,11 +701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +728,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="G1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="20"/>
     </row>
@@ -738,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
@@ -753,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
@@ -761,7 +760,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -772,17 +771,17 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -794,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -805,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -828,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11">
         <v>6</v>
@@ -845,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="11">
         <v>8.5</v>
@@ -862,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="11">
         <v>9.5</v>
@@ -870,7 +869,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>3</v>
@@ -879,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -913,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
@@ -930,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="11">
         <v>0</v>
@@ -947,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
@@ -955,16 +954,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="11">
         <v>9.5</v>
@@ -972,10 +971,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -989,16 +988,16 @@
     </row>
     <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="11">
         <v>0</v>
@@ -1006,7 +1005,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
@@ -1015,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="11">
         <v>14.5</v>
@@ -1023,7 +1022,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
@@ -1040,7 +1039,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
@@ -1049,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="11">
         <v>19.5</v>
@@ -1057,7 +1056,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3</v>
@@ -1066,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="11">
         <v>21</v>
@@ -1074,7 +1073,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>6</v>
@@ -1083,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3">
         <v>21</v>
@@ -1091,7 +1090,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>14</v>
@@ -1100,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="11">
         <v>46</v>
@@ -1108,7 +1107,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>13</v>
@@ -1117,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="11">
         <v>50.5</v>
@@ -1125,7 +1124,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
@@ -1134,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="11">
         <v>52</v>
@@ -1151,10 +1150,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBD498-A94B-42E1-9A81-1E4395982E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1179,10 +1178,10 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -1193,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
@@ -1201,7 +1200,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
       <c r="F2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11">
         <v>4.7</v>
@@ -1215,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
@@ -1223,7 +1222,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="11">
         <v>8.5</v>
@@ -1237,17 +1236,17 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="11">
         <v>10</v>
@@ -1262,10 +1261,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="11">
         <v>10</v>
@@ -1276,7 +1275,7 @@
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11">
         <v>2.5</v>
@@ -1290,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -1310,10 +1309,10 @@
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -1322,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -1333,10 +1332,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7">
         <v>17</v>
@@ -1347,10 +1346,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7">
         <v>18</v>
@@ -1361,10 +1360,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="7">
         <v>19</v>
@@ -1375,10 +1374,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="7">
         <v>34</v>
@@ -1389,7 +1388,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -1406,11 +1405,12 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF5292B-82B4-4FDF-BFC4-F25F4298BCD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1418,5 +1418,6 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/TC_137_Verify_Isolator_Units_Calculation_For_Devices_Having_Built_In_Isolator.xlsx
+++ b/Test Data/TC_137_Verify_Isolator_Units_Calculation_For_Devices_Having_Built_In_Isolator.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65725822-0C1E-4830-833A-71AA484B2131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Verify IB Devices" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,6 +92,9 @@
     <t>CP 820</t>
   </si>
   <si>
+    <t>801 H - 1</t>
+  </si>
+  <si>
     <t>Panel Type</t>
   </si>
   <si>
@@ -236,15 +240,12 @@
   </si>
   <si>
     <t>NGC-549/TC-137</t>
-  </si>
-  <si>
-    <t>801 PH - 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +729,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="G1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="20"/>
     </row>
@@ -737,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
@@ -752,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
@@ -760,7 +761,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -771,17 +772,17 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -793,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -804,21 +805,21 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -827,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E8" s="11">
         <v>6</v>
@@ -844,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="11">
         <v>8.5</v>
@@ -861,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11">
         <v>9.5</v>
@@ -869,7 +870,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>3</v>
@@ -878,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -912,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
@@ -929,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="11">
         <v>0</v>
@@ -946,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
@@ -954,16 +955,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="11">
         <v>9.5</v>
@@ -971,10 +972,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -988,16 +989,16 @@
     </row>
     <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="11">
         <v>0</v>
@@ -1005,7 +1006,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>6</v>
@@ -1014,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="11">
         <v>14.5</v>
@@ -1022,7 +1023,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
@@ -1039,7 +1040,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
@@ -1048,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="11">
         <v>19.5</v>
@@ -1056,7 +1057,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3</v>
@@ -1065,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="11">
         <v>21</v>
@@ -1073,7 +1074,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>6</v>
@@ -1082,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3">
         <v>21</v>
@@ -1090,7 +1091,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>14</v>
@@ -1099,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="11">
         <v>46</v>
@@ -1107,7 +1108,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>13</v>
@@ -1116,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="11">
         <v>50.5</v>
@@ -1124,7 +1125,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6</v>
@@ -1133,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="11">
         <v>52</v>
@@ -1150,10 +1151,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBD498-A94B-42E1-9A81-1E4395982E0C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1178,10 +1179,10 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="G1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
@@ -1192,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
@@ -1200,7 +1201,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
       <c r="F2" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="11">
         <v>4.7</v>
@@ -1214,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
@@ -1222,7 +1223,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="11">
         <v>8.5</v>
@@ -1236,17 +1237,17 @@
         <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="11">
         <v>10</v>
@@ -1261,10 +1262,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="11">
         <v>10</v>
@@ -1275,7 +1276,7 @@
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F6" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="11">
         <v>2.5</v>
@@ -1289,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -1309,10 +1310,10 @@
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -1321,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -1332,10 +1333,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>17</v>
@@ -1346,10 +1347,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="7">
         <v>18</v>
@@ -1360,10 +1361,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7">
         <v>19</v>
@@ -1374,10 +1375,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
         <v>34</v>
@@ -1388,7 +1389,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -1405,12 +1406,11 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF5292B-82B4-4FDF-BFC4-F25F4298BCD1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1418,6 +1418,5 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>